--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,42 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>pco-caregiver-gas-score</t>
+  </si>
+  <si>
+    <t>Caregiver Goal Attainment Scaling (GAS) score</t>
+  </si>
+  <si>
+    <t>null#survey, null#person-centered</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOINC#goal-attainment-scaling</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>pco-patient-gas-score</t>
+  </si>
+  <si>
+    <t>Patient Goal Attainment Scaling (GAS) score</t>
+  </si>
+  <si>
+    <t>pco-practitioner-gas-score</t>
+  </si>
+  <si>
+    <t>Practitioner Goal Attainment Scaling (GAS) score</t>
   </si>
 </sst>
 </file>
@@ -178,7 +214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +255,111 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -53,7 +53,7 @@
     <t>Caregiver Goal Attainment Scaling (GAS) score</t>
   </si>
   <si>
-    <t>null#survey, null#person-centered</t>
+    <t>null#survey</t>
   </si>
   <si>
     <t/>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>LOINC#goal-attainment-scaling</t>
+    <t>Goal Attainment Scaling (GAS) Codes#goal-attainment-scaling</t>
   </si>
   <si>
     <t>dateTimeĵ</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
   <si>
     <t>Profile</t>
   </si>
@@ -81,6 +81,39 @@
   </si>
   <si>
     <t>Practitioner Goal Attainment Scaling (GAS) score</t>
+  </si>
+  <si>
+    <t>pco-what-matters-assessment</t>
+  </si>
+  <si>
+    <t>What Matters Assessment</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/what-matters-focus-areas (preferred)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>What Matters Rating Concepts#nowRating</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>What Matters Rating Concepts#nowReasons</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>What Matters Rating Concepts#futureRating</t>
+  </si>
+  <si>
+    <t>What Matters Rating Concepts#futureChanges</t>
   </si>
 </sst>
 </file>
@@ -214,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -360,6 +393,181 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>Profile</t>
   </si>
@@ -83,6 +83,30 @@
     <t>Practitioner Goal Attainment Scaling (GAS) score</t>
   </si>
   <si>
+    <t>pco-progress-score-observation</t>
+  </si>
+  <si>
+    <t>Person-Centered Progress Score</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-survey-codes (preferred)</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>pco-prom-score</t>
+  </si>
+  <si>
+    <t>Patient-Reported Outcome Measure (PROM) score</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/prom-target-measures (extensible)</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
     <t>pco-what-matters-assessment</t>
   </si>
   <si>
@@ -95,25 +119,22 @@
     <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
   </si>
   <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>What Matters Rating Concepts#nowRating</t>
+    <t>What Matters Rating Concepts#now-rating</t>
   </si>
   <si>
     <t>integerĵ</t>
   </si>
   <si>
-    <t>What Matters Rating Concepts#nowReasons</t>
+    <t>What Matters Rating Concepts#now-reasons</t>
   </si>
   <si>
     <t>stringĵ</t>
   </si>
   <si>
-    <t>What Matters Rating Concepts#futureRating</t>
-  </si>
-  <si>
-    <t>What Matters Rating Concepts#futureChanges</t>
+    <t>What Matters Rating Concepts#future-rating</t>
+  </si>
+  <si>
+    <t>What Matters Rating Concepts#future-changes</t>
   </si>
 </sst>
 </file>
@@ -247,7 +268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -413,10 +434,10 @@
         <v>25</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>27</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -430,28 +451,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -465,28 +486,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -503,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -512,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -521,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -538,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -547,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -556,7 +577,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -565,6 +586,76 @@
         <v>14</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
   <si>
     <t>Profile</t>
   </si>
@@ -47,10 +47,10 @@
     <t>Method</t>
   </si>
   <si>
-    <t>pco-caregiver-gas-score</t>
-  </si>
-  <si>
-    <t>Caregiver Goal Attainment Scaling (GAS) score</t>
+    <t>pco-gas-score-observation</t>
+  </si>
+  <si>
+    <t>PCO Goal Attainment Scaling (GAS) score</t>
   </si>
   <si>
     <t>null#survey</t>
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>Goal Attainment Scaling (GAS) Codes#goal-attainment-scaling</t>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/gas-followup-score (extensible)</t>
   </si>
   <si>
     <t>dateTimeĵ</t>
@@ -69,18 +69,6 @@
   </si>
   <si>
     <t>optional</t>
-  </si>
-  <si>
-    <t>pco-patient-gas-score</t>
-  </si>
-  <si>
-    <t>Patient Goal Attainment Scaling (GAS) score</t>
-  </si>
-  <si>
-    <t>pco-practitioner-gas-score</t>
-  </si>
-  <si>
-    <t>Practitioner Goal Attainment Scaling (GAS) score</t>
   </si>
   <si>
     <t>pco-progress-score-observation</t>
@@ -268,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -323,10 +311,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -358,16 +346,16 @@
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -381,10 +369,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>13</v>
@@ -393,16 +381,16 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -416,10 +404,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>13</v>
@@ -431,13 +419,13 @@
         <v>14</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -451,28 +439,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>28</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -486,28 +474,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>26</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -524,7 +512,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -542,7 +530,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -559,7 +547,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -568,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -577,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -586,76 +574,6 @@
         <v>14</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/gas-followup-score (extensible)</t>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/goal-attainment-scaling-score (extensible)</t>
   </si>
   <si>
     <t>dateTimeĵ</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t>Profile</t>
   </si>
@@ -92,7 +92,7 @@
     <t>http://mtnlotus.com/uv/pco/ValueSet/prom-target-measures (extensible)</t>
   </si>
   <si>
-    <t>Quantityĵ</t>
+    <t>integerĵ</t>
   </si>
   <si>
     <t>pco-what-matters-assessment</t>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>What Matters Rating Concepts#now-rating</t>
-  </si>
-  <si>
-    <t>integerĵ</t>
   </si>
   <si>
     <t>What Matters Rating Concepts#now-reasons</t>
@@ -460,7 +457,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -486,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -521,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -530,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -556,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -565,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
   <si>
     <t>Profile</t>
   </si>
@@ -92,22 +92,25 @@
     <t>http://mtnlotus.com/uv/pco/ValueSet/prom-target-measures (extensible)</t>
   </si>
   <si>
+    <t>Quantityĵ, integerĵ</t>
+  </si>
+  <si>
+    <t>pco-what-matters-assessment</t>
+  </si>
+  <si>
+    <t>What Matters Assessment</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/what-matters-focus-areas (preferred)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>What Matters Rating Concepts#now-rating</t>
+  </si>
+  <si>
     <t>integerĵ</t>
-  </si>
-  <si>
-    <t>pco-what-matters-assessment</t>
-  </si>
-  <si>
-    <t>What Matters Assessment</t>
-  </si>
-  <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/what-matters-focus-areas (preferred)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
-  </si>
-  <si>
-    <t>What Matters Rating Concepts#now-rating</t>
   </si>
   <si>
     <t>What Matters Rating Concepts#now-reasons</t>
@@ -457,7 +460,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -483,7 +486,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
@@ -492,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -518,7 +521,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -527,7 +530,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -553,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -562,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/goal-attainment-scaling-score (extensible)</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score (extensible)</t>
   </si>
   <si>
     <t>dateTimeĵ</t>
@@ -89,7 +89,7 @@
     <t>Patient-Reported Outcome Measure (PROM) score</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/prom-target-measures (extensible)</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/prom-target-measures (extensible)</t>
   </si>
   <si>
     <t>Quantityĵ, integerĵ</t>
@@ -101,7 +101,7 @@
     <t>What Matters Assessment</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/what-matters-focus-areas (preferred)</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-focus-areas (preferred)</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,96 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>pco-gas-score-observation</t>
+  </si>
+  <si>
+    <t>Goal Attainment Scaling (GAS) score</t>
+  </si>
+  <si>
+    <t>null#survey</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>pco-prom-score-observation</t>
+  </si>
+  <si>
+    <t>Patient-Reported Outcome Measure (PROM) score</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/prom-target-measures (extensible)</t>
+  </si>
+  <si>
+    <t>Quantityĵ, integerĵ</t>
+  </si>
+  <si>
+    <t>pco-what-matters-assessment</t>
+  </si>
+  <si>
+    <t>What Matters Assessment</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#wellbeing-assessment</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#now-rating</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#now-reasons</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#future-rating</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#future-changes</t>
+  </si>
+  <si>
+    <t>pco-what-matters-priority</t>
+  </si>
+  <si>
+    <t>What Matters Priority</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#wellbeing-priority</t>
+  </si>
+  <si>
+    <t>booleanĵ</t>
+  </si>
+  <si>
+    <t>pco-what-matters-statement</t>
+  </si>
+  <si>
+    <t>What Matters Statement</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#wellbeing-statement</t>
   </si>
 </sst>
 </file>
@@ -178,7 +268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +309,321 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>Profile</t>
   </si>
@@ -47,30 +47,54 @@
     <t>Method</t>
   </si>
   <si>
+    <t>pco-bothersome-health-concern</t>
+  </si>
+  <si>
+    <t>Bothersome Health Concern</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-bothersome-health-concern-valueset (preferred)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>booleanĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>pco-care-tradeoff</t>
+  </si>
+  <si>
+    <t>Care Trade-off Assessment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-valueset (preferred)</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
     <t>pco-gas-score-observation</t>
   </si>
   <si>
     <t>Goal Attainment Scaling (GAS) score</t>
   </si>
   <si>
-    <t>null#survey</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score (extensible)</t>
   </si>
   <si>
     <t>dateTimeĵ</t>
   </si>
   <si>
-    <t>CodeableConceptĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>pco-prom-score-observation</t>
   </si>
   <si>
@@ -89,10 +113,10 @@
     <t>What Matters Assessment</t>
   </si>
   <si>
-    <t>Well-Being Concepts#wellbeing-assessment</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+    <t>Observation Category Codes#survey, Well-Being Concepts#wellbeing-assessment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example-vs (preferred)</t>
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
@@ -116,16 +140,10 @@
     <t>Well-Being Concepts#future-changes</t>
   </si>
   <si>
-    <t>pco-what-matters-priority</t>
-  </si>
-  <si>
-    <t>What Matters Priority</t>
-  </si>
-  <si>
-    <t>Well-Being Concepts#wellbeing-priority</t>
-  </si>
-  <si>
-    <t>booleanĵ</t>
+    <t>pco-what-matters-priority-focus</t>
+  </si>
+  <si>
+    <t>What Matters Priority or Focus Area</t>
   </si>
   <si>
     <t>pco-what-matters-statement</t>
@@ -134,7 +152,7 @@
     <t>What Matters Statement</t>
   </si>
   <si>
-    <t>Well-Being Concepts#wellbeing-statement</t>
+    <t>Observation Category Codes#survey, Well-Being Concepts#wellbeing-statement</t>
   </si>
 </sst>
 </file>
@@ -268,7 +286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -393,16 +411,16 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>26</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -416,28 +434,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -451,28 +469,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -489,7 +507,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>14</v>
@@ -498,7 +516,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
@@ -507,7 +525,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -524,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -533,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -542,7 +560,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -556,25 +574,25 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>37</v>
@@ -591,36 +609,106 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s" s="2">
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>Profile</t>
   </si>
@@ -53,28 +53,31 @@
     <t>Bothersome Health Concern</t>
   </si>
   <si>
+    <t>Observation Category Codes#survey, Codes for PCO#bothersome-health-concern</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-bothersome-health-concern-valueset (preferred)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>booleanĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>pco-care-tradeoff</t>
+  </si>
+  <si>
+    <t>Care Trade-off Assessment</t>
+  </si>
+  <si>
     <t>Observation Category Codes#survey</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-bothersome-health-concern-valueset (preferred)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
-  </si>
-  <si>
-    <t>booleanĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>pco-care-tradeoff</t>
-  </si>
-  <si>
-    <t>Care Trade-off Assessment</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-valueset (preferred)</t>
@@ -370,7 +373,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
@@ -379,13 +382,13 @@
         <v>14</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -399,28 +402,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>23</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>22</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -434,28 +437,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>26</v>
-      </c>
       <c r="H5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -469,13 +472,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
@@ -484,13 +487,13 @@
         <v>14</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -507,7 +510,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>14</v>
@@ -516,7 +519,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
@@ -525,7 +528,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -542,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -551,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -560,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -577,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -586,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -595,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -612,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>14</v>
@@ -621,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
@@ -630,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -644,13 +647,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
@@ -659,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>16</v>
@@ -679,13 +682,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
@@ -694,13 +697,13 @@
         <v>14</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t>Profile</t>
   </si>
@@ -47,115 +47,100 @@
     <t>Method</t>
   </si>
   <si>
-    <t>pco-bothersome-health-concern</t>
-  </si>
-  <si>
-    <t>Bothersome Health Concern</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#survey, Codes for PCO#bothersome-health-concern</t>
+    <t>pco-care-tradeoff</t>
+  </si>
+  <si>
+    <t>Care Trade-off Assessment</t>
+  </si>
+  <si>
+    <t>null#survey</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-bothersome-health-concern-valueset (preferred)</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-valueset (preferred)</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
   </si>
   <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>pco-gas-score-observation</t>
+  </si>
+  <si>
+    <t>Goal Attainment Scaling (GAS) score</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>pco-goal-barrier</t>
+  </si>
+  <si>
+    <t>Person-Centered Goal Barrier</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-barrier-codes (extensible)</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ, stringĵ</t>
+  </si>
+  <si>
+    <t>pco-prom-score-observation</t>
+  </si>
+  <si>
+    <t>Patient-Reported Outcome Measure (PROM) score</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/prom-target-measures (extensible)</t>
+  </si>
+  <si>
+    <t>Quantityĵ, integerĵ</t>
+  </si>
+  <si>
+    <t>pco-what-matters-assessment</t>
+  </si>
+  <si>
+    <t>What Matters Assessment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example-vs (preferred)</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#now-rating</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#now-reasons</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#future-rating</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#future-changes</t>
+  </si>
+  <si>
+    <t>pco-what-matters-priority</t>
+  </si>
+  <si>
+    <t>What Matters Priority</t>
+  </si>
+  <si>
     <t>booleanĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>pco-care-tradeoff</t>
-  </si>
-  <si>
-    <t>Care Trade-off Assessment</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#survey</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-valueset (preferred)</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ</t>
-  </si>
-  <si>
-    <t>pco-gas-score-observation</t>
-  </si>
-  <si>
-    <t>Goal Attainment Scaling (GAS) score</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>pco-prom-score-observation</t>
-  </si>
-  <si>
-    <t>Patient-Reported Outcome Measure (PROM) score</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/prom-target-measures (extensible)</t>
-  </si>
-  <si>
-    <t>Quantityĵ, integerĵ</t>
-  </si>
-  <si>
-    <t>pco-what-matters-assessment</t>
-  </si>
-  <si>
-    <t>What Matters Assessment</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#survey, Well-Being Concepts#wellbeing-assessment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example-vs (preferred)</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>Well-Being Concepts#now-rating</t>
-  </si>
-  <si>
-    <t>integerĵ</t>
-  </si>
-  <si>
-    <t>Well-Being Concepts#now-reasons</t>
-  </si>
-  <si>
-    <t>stringĵ</t>
-  </si>
-  <si>
-    <t>Well-Being Concepts#future-rating</t>
-  </si>
-  <si>
-    <t>Well-Being Concepts#future-changes</t>
-  </si>
-  <si>
-    <t>pco-what-matters-priority-focus</t>
-  </si>
-  <si>
-    <t>What Matters Priority or Focus Area</t>
-  </si>
-  <si>
-    <t>pco-what-matters-statement</t>
-  </si>
-  <si>
-    <t>What Matters Statement</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#survey, Well-Being Concepts#wellbeing-statement</t>
   </si>
 </sst>
 </file>
@@ -289,7 +274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -373,22 +358,22 @@
         <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="2">
+      <c r="G3" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>16</v>
-      </c>
       <c r="H3" t="s" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -402,28 +387,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="2">
+      <c r="G4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>23</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -437,28 +422,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="2">
+      <c r="G5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>31</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -472,28 +457,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>35</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -510,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>14</v>
@@ -519,7 +504,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
@@ -528,7 +513,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -545,7 +530,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -554,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -563,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -580,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -589,7 +574,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -598,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -615,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>14</v>
@@ -624,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
@@ -633,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -647,13 +632,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
@@ -662,13 +647,13 @@
         <v>14</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -677,41 +662,6 @@
         <v>14</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-valueset (preferred)</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-care-tradeoff-valueset (preferred)</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -59,30 +59,33 @@
     <t/>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-care-tradeoff-valueset (preferred)</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-choices-vs (extensible)</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
   </si>
   <si>
+    <t>CodeableConceptĵ, stringĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>pco-gas-score-observation</t>
+  </si>
+  <si>
+    <t>Goal Attainment Scaling (GAS) score</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
     <t>CodeableConceptĵ</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>pco-gas-score-observation</t>
-  </si>
-  <si>
-    <t>Goal Attainment Scaling (GAS) score</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
     <t>pco-goal-barrier</t>
   </si>
   <si>
@@ -90,9 +93,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/goal-barrier-codes (extensible)</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ, stringĵ</t>
   </si>
   <si>
     <t>pco-prom-score-observation</t>
@@ -373,7 +373,7 @@
         <v>22</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -387,10 +387,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>13</v>
@@ -402,13 +402,13 @@
         <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -74,7 +74,7 @@
     <t>pco-gas-score-observation</t>
   </si>
   <si>
-    <t>Goal Attainment Scaling (GAS) score</t>
+    <t>Goal Attainment Scaling (GAS) score observation</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score (extensible)</t>
@@ -98,7 +98,7 @@
     <t>pco-prom-score-observation</t>
   </si>
   <si>
-    <t>Patient-Reported Outcome Measure (PROM) score</t>
+    <t>Patient-Reported Outcome Measure (PROM) score observation</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/prom-target-measures (extensible)</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -104,40 +104,40 @@
     <t>http://hl7.org/fhir/us/pco/ValueSet/prom-target-measures (extensible)</t>
   </si>
   <si>
-    <t>Quantityĵ, integerĵ</t>
-  </si>
-  <si>
-    <t>pco-what-matters-assessment</t>
-  </si>
-  <si>
-    <t>What Matters Assessment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example-vs (preferred)</t>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>pco-well-being-assessment</t>
+  </si>
+  <si>
+    <t>Well-Being Assessment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example (preferred)</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#now-rating</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>Well-Being Concepts#now-reasons</t>
   </si>
   <si>
     <t>stringĵ</t>
   </si>
   <si>
-    <t>Well-Being Concepts#now-rating</t>
-  </si>
-  <si>
-    <t>integerĵ</t>
-  </si>
-  <si>
-    <t>Well-Being Concepts#now-reasons</t>
-  </si>
-  <si>
     <t>Well-Being Concepts#future-rating</t>
   </si>
   <si>
     <t>Well-Being Concepts#future-changes</t>
   </si>
   <si>
-    <t>pco-what-matters-priority</t>
-  </si>
-  <si>
-    <t>What Matters Priority</t>
+    <t>pco-well-being-priority</t>
+  </si>
+  <si>
+    <t>Well-Being Priority</t>
   </si>
   <si>
     <t>booleanĵ</t>
@@ -478,7 +478,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -504,16 +504,16 @@
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -539,16 +539,16 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -583,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
   <si>
     <t>Profile</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>pco-readiness-assessment</t>
+  </si>
+  <si>
+    <t>Readiness Assessment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/readiness-assessment-codes (extensible)</t>
   </si>
   <si>
     <t>pco-well-being-assessment</t>
@@ -274,7 +283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -478,7 +487,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -492,28 +501,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -530,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -539,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -548,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -565,7 +574,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -574,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -583,7 +592,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -600,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>14</v>
@@ -609,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
@@ -618,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -632,36 +641,71 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s" s="2">
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s" s="2">
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s" s="2">
+      <c r="H12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -116,10 +116,10 @@
     <t>http://hl7.org/fhir/us/pco/ValueSet/readiness-assessment-codes (extensible)</t>
   </si>
   <si>
-    <t>pco-well-being-assessment</t>
-  </si>
-  <si>
-    <t>Well-Being Assessment</t>
+    <t>pco-what-matters-assessment</t>
+  </si>
+  <si>
+    <t>What Matters Assessment</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example (preferred)</t>
@@ -143,10 +143,10 @@
     <t>Well-Being Concepts#future-changes</t>
   </si>
   <si>
-    <t>pco-well-being-priority</t>
-  </si>
-  <si>
-    <t>Well-Being Priority</t>
+    <t>pco-what-matters-priority</t>
+  </si>
+  <si>
+    <t>What Matters Priority</t>
   </si>
   <si>
     <t>booleanĵ</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -487,7 +487,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Profile</t>
   </si>
@@ -47,10 +47,10 @@
     <t>Method</t>
   </si>
   <si>
-    <t>pco-care-tradeoff</t>
-  </si>
-  <si>
-    <t>Care Trade-off Assessment</t>
+    <t>pco-gas-score-observation</t>
+  </si>
+  <si>
+    <t>Goal Attainment Scaling (GAS) score observation</t>
   </si>
   <si>
     <t>null#survey</t>
@@ -59,7 +59,25 @@
     <t/>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-choices-vs (extensible)</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>pco-goal-barrier</t>
+  </si>
+  <si>
+    <t>Person-Centered Goal Barrier</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-barrier-codes (extensible)</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
@@ -68,33 +86,6 @@
     <t>CodeableConceptĵ, stringĵ</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>pco-gas-score-observation</t>
-  </si>
-  <si>
-    <t>Goal Attainment Scaling (GAS) score observation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ</t>
-  </si>
-  <si>
-    <t>pco-goal-barrier</t>
-  </si>
-  <si>
-    <t>Person-Centered Goal Barrier</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-barrier-codes (extensible)</t>
-  </si>
-  <si>
     <t>pco-prom-score-observation</t>
   </si>
   <si>
@@ -122,34 +113,10 @@
     <t>What Matters Assessment</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example (preferred)</t>
-  </si>
-  <si>
-    <t>Well-Being Concepts#now-rating</t>
-  </si>
-  <si>
-    <t>integerĵ</t>
-  </si>
-  <si>
-    <t>Well-Being Concepts#now-reasons</t>
-  </si>
-  <si>
-    <t>stringĵ</t>
-  </si>
-  <si>
-    <t>Well-Being Concepts#future-rating</t>
-  </si>
-  <si>
-    <t>Well-Being Concepts#future-changes</t>
-  </si>
-  <si>
-    <t>pco-what-matters-priority</t>
-  </si>
-  <si>
-    <t>What Matters Priority</t>
-  </si>
-  <si>
-    <t>booleanĵ</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-codes-example (preferred)</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
 </sst>
 </file>
@@ -283,7 +250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -417,7 +384,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -431,10 +398,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>13</v>
@@ -446,13 +413,13 @@
         <v>14</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>22</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -484,10 +451,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -496,216 +463,6 @@
         <v>14</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s" s="2">
         <v>14</v>
       </c>
     </row>
